--- a/data/trans_dic/P44A$analisis-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,65; 66,9</t>
+          <t>19,16; 67,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,38; 46,9</t>
+          <t>12,45; 46,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,19</t>
+          <t>2,55; 11,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 48,19</t>
+          <t>6,64; 48,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 41,22</t>
+          <t>7,41; 40,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 13,93</t>
+          <t>6,31; 14,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 49,43</t>
+          <t>16,55; 48,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 38,11</t>
+          <t>13,74; 38,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,33</t>
+          <t>5,3; 11,41</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,65; 68,57</t>
+          <t>24,01; 67,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,5; 60,11</t>
+          <t>29,24; 59,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 91,42</t>
+          <t>11,39; 91,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,92; 52,69</t>
+          <t>20,25; 52,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 60,94</t>
+          <t>21,6; 58,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 18,29</t>
+          <t>8,64; 17,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 52,2</t>
+          <t>27,03; 52,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 55,19</t>
+          <t>30,23; 55,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,87; 84,11</t>
+          <t>11,82; 85,78</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 58,09</t>
+          <t>16,18; 56,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 42,07</t>
+          <t>9,66; 40,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 32,48</t>
+          <t>17,19; 33,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 54,07</t>
+          <t>16,24; 53,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 51,8</t>
+          <t>11,67; 54,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 23,52</t>
+          <t>10,68; 23,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,79; 50,94</t>
+          <t>22,48; 48,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 39,33</t>
+          <t>14,86; 39,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 26,57</t>
+          <t>15,79; 26,59</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 46,78</t>
+          <t>18,86; 50,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,87; 56,51</t>
+          <t>30,48; 57,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 16,05</t>
+          <t>7,55; 15,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 52,15</t>
+          <t>15,29; 53,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,64; 60,7</t>
+          <t>24,18; 58,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,79</t>
+          <t>5,96; 12,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,51; 45,1</t>
+          <t>21,29; 45,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,47; 53,24</t>
+          <t>32,57; 53,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,02</t>
+          <t>7,82; 13,02</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,55; 47,92</t>
+          <t>27,99; 47,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,02; 44,46</t>
+          <t>29,1; 44,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 74,17</t>
+          <t>12,88; 74,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,73; 42,18</t>
+          <t>23,71; 41,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,02; 43,69</t>
+          <t>25,43; 44,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,45</t>
+          <t>9,24; 13,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,88; 41,26</t>
+          <t>28,24; 41,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,82; 41,6</t>
+          <t>29,93; 41,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 63,27</t>
+          <t>11,88; 60,49</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6166</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8343</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5396</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3172</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5314</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9530</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9338</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13657</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14926</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2913; 10254</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3846; 14480</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2341; 10737</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1010; 7374</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1895; 10405</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6154; 14375</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5030; 14636</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7757; 21857</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10034; 21618</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12078</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17323</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>263147</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13190</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16448</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24698</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30512</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>279594</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6335; 17823</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11553; 23431</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44087; 355243</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7365; 19002</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7273; 19775</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10991; 22303</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16961; 32854</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22123; 40368</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>60766; 441052</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9420</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25615</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8794</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5762</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11733</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12991</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37348</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4263; 14954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2973; 12510</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18330; 35713</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4290; 14157</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2369; 11011</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7722; 17130</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11863; 25807</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7590; 19929</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28258; 47583</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13407</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25345</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21810</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9185</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15223</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16213</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22592</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40568</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7813; 20762</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17831; 33705</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14429; 30389</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4429; 15465</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8845; 21261</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10794; 22366</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14985; 31902</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30969; 50960</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29113; 48491</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41070</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>315969</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33771</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39488</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>53924</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>74842</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>97728</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>369892</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>30607; 52072</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>46469; 70793</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100031; 577175</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25357; 44873</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29533; 51612</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>44190; 64092</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>61085; 90565</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>82559; 115787</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>149064; 759094</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$analisis-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Habitat-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1226,7 +1226,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
